--- a/InputData/elec/DRCo/Demand Response Costs.xlsx
+++ b/InputData/elec/DRCo/Demand Response Costs.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\DRCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\DRCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B586BD6-C879-44E4-8AAE-17D3F20F0F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DEBE6C8-1FDC-4054-8D8C-5061FAD5ABA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1170" windowWidth="22170" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49365" yWindow="690" windowWidth="14925" windowHeight="14730" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
     <sheet name="Demand Response_States" sheetId="1" r:id="rId2"/>
     <sheet name="Calculations" sheetId="6" r:id="rId3"/>
-    <sheet name="DRCo-ACpUDRC" sheetId="5" r:id="rId4"/>
-    <sheet name="DRCo-SoDRbP" sheetId="7" r:id="rId5"/>
+    <sheet name="Texas Notes" sheetId="8" r:id="rId4"/>
+    <sheet name="Demand Response_Texas" sheetId="9" r:id="rId5"/>
+    <sheet name="Calculations_Texas" sheetId="10" r:id="rId6"/>
+    <sheet name="DRCo-ACpUDRC" sheetId="5" r:id="rId7"/>
+    <sheet name="DRCo-SoDRbP" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Demand Response_States'!$A$3:$AN$430</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Demand Response_Texas'!$A$3:$AN$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Demand Response_States'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Demand Response_Texas'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7374" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7870" uniqueCount="563">
   <si>
     <t>Utility Characteristics</t>
   </si>
@@ -1747,6 +1752,9 @@
   <si>
     <t>We use the median cost per MW (rather than a  weighted average) because a few</t>
   </si>
+  <si>
+    <t>I used their same method but downselected their data for only Texas locations</t>
+  </si>
 </sst>
 </file>
 
@@ -1912,11 +1920,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2142,7 +2152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2394,6 +2404,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2441,7 +2473,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2531,6 +2563,19 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="19" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="20" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2606,18 +2651,11 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="19" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="20" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2944,24 +2982,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>432</v>
       </c>
@@ -2969,122 +3007,122 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="6">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="34">
         <v>0.9143</v>
       </c>
@@ -3109,148 +3147,148 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:D1"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="60" customWidth="1"/>
-    <col min="10" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" style="35" customWidth="1"/>
+    <col min="10" max="12" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="38" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="41" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="43"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="48"/>
       <c r="AN1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="44" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="44" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47" t="s">
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="50" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="53" t="s">
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="55"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="60"/>
       <c r="AN2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
@@ -3372,7 +3410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" s="31">
         <v>2018</v>
       </c>
@@ -3498,7 +3536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5" s="31">
         <v>2018</v>
       </c>
@@ -3624,7 +3662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A6" s="31">
         <v>2018</v>
       </c>
@@ -3750,7 +3788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7" s="31">
         <v>2018</v>
       </c>
@@ -3876,7 +3914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8" s="31">
         <v>2018</v>
       </c>
@@ -4002,7 +4040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" s="31">
         <v>2018</v>
       </c>
@@ -4128,7 +4166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" s="31">
         <v>2018</v>
       </c>
@@ -4254,7 +4292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
         <v>2018</v>
       </c>
@@ -4380,7 +4418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" s="31">
         <v>2018</v>
       </c>
@@ -4506,7 +4544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" s="31">
         <v>2018</v>
       </c>
@@ -4632,7 +4670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="31">
         <v>2018</v>
       </c>
@@ -4758,7 +4796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A15" s="31">
         <v>2018</v>
       </c>
@@ -4884,7 +4922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16" s="31">
         <v>2018</v>
       </c>
@@ -5010,7 +5048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17" s="31">
         <v>2018</v>
       </c>
@@ -5136,7 +5174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" s="31">
         <v>2018</v>
       </c>
@@ -5262,7 +5300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19" s="31">
         <v>2018</v>
       </c>
@@ -5388,7 +5426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20" s="31">
         <v>2018</v>
       </c>
@@ -5514,7 +5552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="31">
         <v>2018</v>
       </c>
@@ -5640,7 +5678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
@@ -5766,7 +5804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23" s="31">
         <v>2018</v>
       </c>
@@ -5892,7 +5930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24" s="31">
         <v>2018</v>
       </c>
@@ -6018,7 +6056,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="31">
         <v>2018</v>
       </c>
@@ -6144,7 +6182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" s="31">
         <v>2018</v>
       </c>
@@ -6270,7 +6308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="31">
         <v>2018</v>
       </c>
@@ -6396,7 +6434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A28" s="31">
         <v>2018</v>
       </c>
@@ -6522,7 +6560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A29" s="31">
         <v>2018</v>
       </c>
@@ -6648,7 +6686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A30" s="31">
         <v>2018</v>
       </c>
@@ -6774,7 +6812,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A31" s="31">
         <v>2018</v>
       </c>
@@ -6900,7 +6938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A32" s="31">
         <v>2018</v>
       </c>
@@ -7026,7 +7064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A33" s="31">
         <v>2018</v>
       </c>
@@ -7152,7 +7190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A34" s="31">
         <v>2018</v>
       </c>
@@ -7278,7 +7316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A35" s="31">
         <v>2018</v>
       </c>
@@ -7404,7 +7442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A36" s="31">
         <v>2018</v>
       </c>
@@ -7530,7 +7568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A37" s="31">
         <v>2018</v>
       </c>
@@ -7656,7 +7694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A38" s="31">
         <v>2018</v>
       </c>
@@ -7782,7 +7820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A39" s="31">
         <v>2018</v>
       </c>
@@ -7908,7 +7946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A40" s="31">
         <v>2018</v>
       </c>
@@ -8034,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A41" s="31">
         <v>2018</v>
       </c>
@@ -8160,7 +8198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A42" s="31">
         <v>2018</v>
       </c>
@@ -8286,7 +8324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A43" s="31">
         <v>2018</v>
       </c>
@@ -8412,7 +8450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A44" s="31">
         <v>2018</v>
       </c>
@@ -8538,7 +8576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A45" s="31">
         <v>2018</v>
       </c>
@@ -8664,7 +8702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A46" s="31">
         <v>2018</v>
       </c>
@@ -8790,7 +8828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A47" s="31">
         <v>2018</v>
       </c>
@@ -8916,7 +8954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A48" s="31">
         <v>2018</v>
       </c>
@@ -9042,7 +9080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A49" s="31">
         <v>2018</v>
       </c>
@@ -9168,7 +9206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A50" s="31">
         <v>2018</v>
       </c>
@@ -9294,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A51" s="31">
         <v>2018</v>
       </c>
@@ -9420,7 +9458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A52" s="31">
         <v>2018</v>
       </c>
@@ -9546,7 +9584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A53" s="31">
         <v>2018</v>
       </c>
@@ -9672,7 +9710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A54" s="31">
         <v>2018</v>
       </c>
@@ -9798,7 +9836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A55" s="31">
         <v>2018</v>
       </c>
@@ -9924,7 +9962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A56" s="31">
         <v>2018</v>
       </c>
@@ -10050,7 +10088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A57" s="31">
         <v>2018</v>
       </c>
@@ -10176,7 +10214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A58" s="31">
         <v>2018</v>
       </c>
@@ -10302,7 +10340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A59" s="31">
         <v>2018</v>
       </c>
@@ -10428,7 +10466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A60" s="31">
         <v>2018</v>
       </c>
@@ -10554,7 +10592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A61" s="31">
         <v>2018</v>
       </c>
@@ -10680,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A62" s="31">
         <v>2018</v>
       </c>
@@ -10806,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A63" s="31">
         <v>2018</v>
       </c>
@@ -10932,7 +10970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A64" s="31">
         <v>2018</v>
       </c>
@@ -11058,7 +11096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A65" s="31">
         <v>2018</v>
       </c>
@@ -11184,7 +11222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A66" s="31">
         <v>2018</v>
       </c>
@@ -11310,7 +11348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A67" s="31">
         <v>2018</v>
       </c>
@@ -11436,7 +11474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A68" s="31">
         <v>2018</v>
       </c>
@@ -11562,7 +11600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A69" s="31">
         <v>2018</v>
       </c>
@@ -11688,7 +11726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A70" s="31">
         <v>2018</v>
       </c>
@@ -11814,7 +11852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A71" s="31">
         <v>2018</v>
       </c>
@@ -11940,7 +11978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A72" s="31">
         <v>2018</v>
       </c>
@@ -12066,7 +12104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A73" s="31">
         <v>2018</v>
       </c>
@@ -12192,7 +12230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A74" s="31">
         <v>2018</v>
       </c>
@@ -12318,7 +12356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A75" s="31">
         <v>2018</v>
       </c>
@@ -12444,7 +12482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A76" s="31">
         <v>2018</v>
       </c>
@@ -12570,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A77" s="31">
         <v>2018</v>
       </c>
@@ -12696,7 +12734,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A78" s="31">
         <v>2018</v>
       </c>
@@ -12822,7 +12860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A79" s="31">
         <v>2018</v>
       </c>
@@ -12948,7 +12986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A80" s="31">
         <v>2018</v>
       </c>
@@ -13074,7 +13112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A81" s="31">
         <v>2018</v>
       </c>
@@ -13200,7 +13238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A82" s="31">
         <v>2018</v>
       </c>
@@ -13326,7 +13364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A83" s="31">
         <v>2018</v>
       </c>
@@ -13452,7 +13490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A84" s="31">
         <v>2018</v>
       </c>
@@ -13578,7 +13616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A85" s="31">
         <v>2018</v>
       </c>
@@ -13704,7 +13742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A86" s="31">
         <v>2018</v>
       </c>
@@ -13830,7 +13868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A87" s="31">
         <v>2018</v>
       </c>
@@ -13956,7 +13994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A88" s="31">
         <v>2018</v>
       </c>
@@ -14082,7 +14120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A89" s="31">
         <v>2018</v>
       </c>
@@ -14208,7 +14246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A90" s="31">
         <v>2018</v>
       </c>
@@ -14334,7 +14372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A91" s="31">
         <v>2018</v>
       </c>
@@ -14460,7 +14498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A92" s="31">
         <v>2018</v>
       </c>
@@ -14586,7 +14624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A93" s="31">
         <v>2018</v>
       </c>
@@ -14712,7 +14750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A94" s="31">
         <v>2018</v>
       </c>
@@ -14838,7 +14876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A95" s="31">
         <v>2018</v>
       </c>
@@ -14964,7 +15002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A96" s="31">
         <v>2018</v>
       </c>
@@ -15090,7 +15128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A97" s="31">
         <v>2018</v>
       </c>
@@ -15216,7 +15254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A98" s="31">
         <v>2018</v>
       </c>
@@ -15342,7 +15380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A99" s="31">
         <v>2018</v>
       </c>
@@ -15468,7 +15506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A100" s="31">
         <v>2018</v>
       </c>
@@ -15594,7 +15632,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A101" s="31">
         <v>2018</v>
       </c>
@@ -15720,7 +15758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A102" s="31">
         <v>2018</v>
       </c>
@@ -15846,7 +15884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A103" s="31">
         <v>2018</v>
       </c>
@@ -15972,7 +16010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A104" s="31">
         <v>2018</v>
       </c>
@@ -16098,7 +16136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A105" s="31">
         <v>2018</v>
       </c>
@@ -16224,7 +16262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A106" s="31">
         <v>2018</v>
       </c>
@@ -16350,7 +16388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A107" s="31">
         <v>2018</v>
       </c>
@@ -16476,7 +16514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A108" s="31">
         <v>2018</v>
       </c>
@@ -16602,7 +16640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A109" s="31">
         <v>2018</v>
       </c>
@@ -16728,7 +16766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A110" s="31">
         <v>2018</v>
       </c>
@@ -16854,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A111" s="31">
         <v>2018</v>
       </c>
@@ -16980,7 +17018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A112" s="31">
         <v>2018</v>
       </c>
@@ -17106,7 +17144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A113" s="31">
         <v>2018</v>
       </c>
@@ -17232,7 +17270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A114" s="31">
         <v>2018</v>
       </c>
@@ -17358,7 +17396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A115" s="31">
         <v>2018</v>
       </c>
@@ -17484,7 +17522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A116" s="31">
         <v>2018</v>
       </c>
@@ -17610,7 +17648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A117" s="31">
         <v>2018</v>
       </c>
@@ -17736,7 +17774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A118" s="31">
         <v>2018</v>
       </c>
@@ -17862,7 +17900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A119" s="31">
         <v>2018</v>
       </c>
@@ -17988,7 +18026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A120" s="31">
         <v>2018</v>
       </c>
@@ -18114,7 +18152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A121" s="31">
         <v>2018</v>
       </c>
@@ -18240,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A122" s="31">
         <v>2018</v>
       </c>
@@ -18366,7 +18404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A123" s="31">
         <v>2018</v>
       </c>
@@ -18492,7 +18530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A124" s="31">
         <v>2018</v>
       </c>
@@ -18618,7 +18656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A125" s="31">
         <v>2018</v>
       </c>
@@ -18744,7 +18782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A126" s="31">
         <v>2018</v>
       </c>
@@ -18870,7 +18908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A127" s="31">
         <v>2018</v>
       </c>
@@ -18996,7 +19034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A128" s="31">
         <v>2018</v>
       </c>
@@ -19122,7 +19160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A129" s="31">
         <v>2018</v>
       </c>
@@ -19248,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A130" s="31">
         <v>2018</v>
       </c>
@@ -19374,7 +19412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A131" s="31">
         <v>2018</v>
       </c>
@@ -19500,7 +19538,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A132" s="31">
         <v>2018</v>
       </c>
@@ -19626,7 +19664,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A133" s="31">
         <v>2018</v>
       </c>
@@ -19752,7 +19790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A134" s="31">
         <v>2018</v>
       </c>
@@ -19878,7 +19916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A135" s="31">
         <v>2018</v>
       </c>
@@ -20004,7 +20042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A136" s="31">
         <v>2018</v>
       </c>
@@ -20130,7 +20168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A137" s="31">
         <v>2018</v>
       </c>
@@ -20256,7 +20294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A138" s="31">
         <v>2018</v>
       </c>
@@ -20382,7 +20420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A139" s="31">
         <v>2018</v>
       </c>
@@ -20508,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A140" s="31">
         <v>2018</v>
       </c>
@@ -20634,7 +20672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A141" s="31">
         <v>2018</v>
       </c>
@@ -20760,7 +20798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A142" s="31">
         <v>2018</v>
       </c>
@@ -20886,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A143" s="31">
         <v>2018</v>
       </c>
@@ -21012,7 +21050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A144" s="31">
         <v>2018</v>
       </c>
@@ -21138,7 +21176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A145" s="31">
         <v>2018</v>
       </c>
@@ -21264,7 +21302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A146" s="31">
         <v>2018</v>
       </c>
@@ -21390,7 +21428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A147" s="31">
         <v>2018</v>
       </c>
@@ -21516,7 +21554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A148" s="31">
         <v>2018</v>
       </c>
@@ -21642,7 +21680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A149" s="31">
         <v>2018</v>
       </c>
@@ -21768,7 +21806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A150" s="31">
         <v>2018</v>
       </c>
@@ -21894,7 +21932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A151" s="31">
         <v>2018</v>
       </c>
@@ -22020,7 +22058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A152" s="31">
         <v>2018</v>
       </c>
@@ -22146,7 +22184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A153" s="31">
         <v>2018</v>
       </c>
@@ -22272,7 +22310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A154" s="31">
         <v>2018</v>
       </c>
@@ -22398,7 +22436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A155" s="31">
         <v>2018</v>
       </c>
@@ -22524,7 +22562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A156" s="31">
         <v>2018</v>
       </c>
@@ -22650,7 +22688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A157" s="31">
         <v>2018</v>
       </c>
@@ -22776,7 +22814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A158" s="31">
         <v>2018</v>
       </c>
@@ -22902,7 +22940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A159" s="31">
         <v>2018</v>
       </c>
@@ -23028,7 +23066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A160" s="31">
         <v>2018</v>
       </c>
@@ -23154,7 +23192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A161" s="31">
         <v>2018</v>
       </c>
@@ -23280,7 +23318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A162" s="31">
         <v>2018</v>
       </c>
@@ -23406,7 +23444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A163" s="31">
         <v>2018</v>
       </c>
@@ -23532,7 +23570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A164" s="31">
         <v>2018</v>
       </c>
@@ -23658,7 +23696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A165" s="31">
         <v>2018</v>
       </c>
@@ -23784,7 +23822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A166" s="31">
         <v>2018</v>
       </c>
@@ -23910,7 +23948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A167" s="31">
         <v>2018</v>
       </c>
@@ -24036,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A168" s="31">
         <v>2018</v>
       </c>
@@ -24162,7 +24200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A169" s="31">
         <v>2018</v>
       </c>
@@ -24288,7 +24326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A170" s="31">
         <v>2018</v>
       </c>
@@ -24414,7 +24452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A171" s="31">
         <v>2018</v>
       </c>
@@ -24540,7 +24578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A172" s="31">
         <v>2018</v>
       </c>
@@ -24666,7 +24704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A173" s="31">
         <v>2018</v>
       </c>
@@ -24792,7 +24830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A174" s="31">
         <v>2018</v>
       </c>
@@ -24918,7 +24956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A175" s="31">
         <v>2018</v>
       </c>
@@ -25044,7 +25082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A176" s="31">
         <v>2018</v>
       </c>
@@ -25170,7 +25208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A177" s="31">
         <v>2018</v>
       </c>
@@ -25296,7 +25334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A178" s="31">
         <v>2018</v>
       </c>
@@ -25422,7 +25460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A179" s="31">
         <v>2018</v>
       </c>
@@ -25548,7 +25586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A180" s="31">
         <v>2018</v>
       </c>
@@ -25674,7 +25712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A181" s="31">
         <v>2018</v>
       </c>
@@ -25800,7 +25838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A182" s="31">
         <v>2018</v>
       </c>
@@ -25926,7 +25964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A183" s="31">
         <v>2018</v>
       </c>
@@ -26052,7 +26090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A184" s="31">
         <v>2018</v>
       </c>
@@ -26178,7 +26216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A185" s="31">
         <v>2018</v>
       </c>
@@ -26304,7 +26342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A186" s="31">
         <v>2018</v>
       </c>
@@ -26430,7 +26468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A187" s="31">
         <v>2018</v>
       </c>
@@ -26556,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A188" s="31">
         <v>2018</v>
       </c>
@@ -26682,7 +26720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A189" s="31">
         <v>2018</v>
       </c>
@@ -26808,7 +26846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A190" s="31">
         <v>2018</v>
       </c>
@@ -26934,7 +26972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A191" s="31">
         <v>2018</v>
       </c>
@@ -27060,7 +27098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A192" s="31">
         <v>2018</v>
       </c>
@@ -27186,7 +27224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A193" s="31">
         <v>2018</v>
       </c>
@@ -27312,7 +27350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A194" s="31">
         <v>2018</v>
       </c>
@@ -27438,7 +27476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A195" s="31">
         <v>2018</v>
       </c>
@@ -27564,7 +27602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A196" s="31">
         <v>2018</v>
       </c>
@@ -27690,7 +27728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A197" s="31">
         <v>2018</v>
       </c>
@@ -27816,7 +27854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A198" s="31">
         <v>2018</v>
       </c>
@@ -27942,7 +27980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A199" s="31">
         <v>2018</v>
       </c>
@@ -28068,7 +28106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A200" s="31">
         <v>2018</v>
       </c>
@@ -28194,7 +28232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A201" s="31">
         <v>2018</v>
       </c>
@@ -28320,7 +28358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A202" s="31">
         <v>2018</v>
       </c>
@@ -28446,7 +28484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A203" s="31">
         <v>2018</v>
       </c>
@@ -28572,7 +28610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A204" s="31">
         <v>2018</v>
       </c>
@@ -28698,7 +28736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A205" s="31">
         <v>2018</v>
       </c>
@@ -28824,7 +28862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A206" s="31">
         <v>2018</v>
       </c>
@@ -28950,7 +28988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A207" s="31">
         <v>2018</v>
       </c>
@@ -29076,7 +29114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A208" s="31">
         <v>2018</v>
       </c>
@@ -29202,7 +29240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A209" s="31">
         <v>2018</v>
       </c>
@@ -29328,7 +29366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A210" s="31">
         <v>2018</v>
       </c>
@@ -29454,7 +29492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A211" s="31">
         <v>2018</v>
       </c>
@@ -29580,7 +29618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A212" s="31">
         <v>2018</v>
       </c>
@@ -29706,7 +29744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A213" s="31">
         <v>2018</v>
       </c>
@@ -29832,7 +29870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A214" s="31">
         <v>2018</v>
       </c>
@@ -29958,7 +29996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A215" s="31">
         <v>2018</v>
       </c>
@@ -30084,7 +30122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A216" s="31">
         <v>2018</v>
       </c>
@@ -30210,7 +30248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A217" s="31">
         <v>2018</v>
       </c>
@@ -30336,7 +30374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A218" s="31">
         <v>2018</v>
       </c>
@@ -30462,7 +30500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A219" s="31">
         <v>2018</v>
       </c>
@@ -30588,7 +30626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A220" s="31">
         <v>2018</v>
       </c>
@@ -30714,7 +30752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A221" s="31">
         <v>2018</v>
       </c>
@@ -30840,7 +30878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A222" s="31">
         <v>2018</v>
       </c>
@@ -30966,7 +31004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A223" s="31">
         <v>2018</v>
       </c>
@@ -31092,7 +31130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A224" s="31">
         <v>2018</v>
       </c>
@@ -31218,7 +31256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A225" s="31">
         <v>2018</v>
       </c>
@@ -31344,7 +31382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A226" s="31">
         <v>2018</v>
       </c>
@@ -31470,7 +31508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A227" s="31">
         <v>2018</v>
       </c>
@@ -31596,7 +31634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A228" s="31">
         <v>2018</v>
       </c>
@@ -31722,7 +31760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A229" s="31">
         <v>2018</v>
       </c>
@@ -31848,7 +31886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A230" s="31">
         <v>2018</v>
       </c>
@@ -31974,7 +32012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A231" s="31">
         <v>2018</v>
       </c>
@@ -32100,7 +32138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A232" s="31">
         <v>2018</v>
       </c>
@@ -32226,7 +32264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A233" s="31">
         <v>2018</v>
       </c>
@@ -32352,7 +32390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A234" s="31">
         <v>2018</v>
       </c>
@@ -32478,7 +32516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A235" s="31">
         <v>2018</v>
       </c>
@@ -32604,7 +32642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A236" s="31">
         <v>2018</v>
       </c>
@@ -32730,7 +32768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A237" s="31">
         <v>2018</v>
       </c>
@@ -32856,7 +32894,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A238" s="31">
         <v>2018</v>
       </c>
@@ -32982,7 +33020,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A239" s="31">
         <v>2018</v>
       </c>
@@ -33108,7 +33146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A240" s="31">
         <v>2018</v>
       </c>
@@ -33234,7 +33272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A241" s="31">
         <v>2018</v>
       </c>
@@ -33360,7 +33398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A242" s="31">
         <v>2018</v>
       </c>
@@ -33486,7 +33524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A243" s="31">
         <v>2018</v>
       </c>
@@ -33612,7 +33650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A244" s="31">
         <v>2018</v>
       </c>
@@ -33738,7 +33776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A245" s="31">
         <v>2018</v>
       </c>
@@ -33864,7 +33902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A246" s="31">
         <v>2018</v>
       </c>
@@ -33990,7 +34028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A247" s="31">
         <v>2018</v>
       </c>
@@ -34116,7 +34154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A248" s="31">
         <v>2018</v>
       </c>
@@ -34242,7 +34280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A249" s="31">
         <v>2018</v>
       </c>
@@ -34368,7 +34406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A250" s="31">
         <v>2018</v>
       </c>
@@ -34494,7 +34532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A251" s="31">
         <v>2018</v>
       </c>
@@ -34620,7 +34658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A252" s="31">
         <v>2018</v>
       </c>
@@ -34746,7 +34784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A253" s="31">
         <v>2018</v>
       </c>
@@ -34872,7 +34910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A254" s="31">
         <v>2018</v>
       </c>
@@ -34998,7 +35036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A255" s="31">
         <v>2018</v>
       </c>
@@ -35124,7 +35162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A256" s="31">
         <v>2018</v>
       </c>
@@ -35250,7 +35288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A257" s="31">
         <v>2018</v>
       </c>
@@ -35376,7 +35414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A258" s="31">
         <v>2018</v>
       </c>
@@ -35502,7 +35540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A259" s="31">
         <v>2018</v>
       </c>
@@ -35628,7 +35666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A260" s="31">
         <v>2018</v>
       </c>
@@ -35754,7 +35792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A261" s="31">
         <v>2018</v>
       </c>
@@ -35880,7 +35918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A262" s="31">
         <v>2018</v>
       </c>
@@ -36006,7 +36044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A263" s="31">
         <v>2018</v>
       </c>
@@ -36132,7 +36170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A264" s="31">
         <v>2018</v>
       </c>
@@ -36258,7 +36296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A265" s="31">
         <v>2018</v>
       </c>
@@ -36384,7 +36422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A266" s="31">
         <v>2018</v>
       </c>
@@ -36510,7 +36548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A267" s="31">
         <v>2018</v>
       </c>
@@ -36636,7 +36674,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A268" s="31">
         <v>2018</v>
       </c>
@@ -36762,7 +36800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A269" s="31">
         <v>2018</v>
       </c>
@@ -36888,7 +36926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A270" s="31">
         <v>2018</v>
       </c>
@@ -37014,7 +37052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A271" s="31">
         <v>2018</v>
       </c>
@@ -37140,7 +37178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A272" s="31">
         <v>2018</v>
       </c>
@@ -37266,7 +37304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A273" s="31">
         <v>2018</v>
       </c>
@@ -37392,7 +37430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A274" s="31">
         <v>2018</v>
       </c>
@@ -37518,7 +37556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A275" s="31">
         <v>2018</v>
       </c>
@@ -37644,7 +37682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A276" s="31">
         <v>2018</v>
       </c>
@@ -37770,7 +37808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A277" s="31">
         <v>2018</v>
       </c>
@@ -37896,7 +37934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A278" s="31">
         <v>2018</v>
       </c>
@@ -38022,7 +38060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A279" s="31">
         <v>2018</v>
       </c>
@@ -38148,7 +38186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A280" s="31">
         <v>2018</v>
       </c>
@@ -38274,7 +38312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A281" s="31">
         <v>2018</v>
       </c>
@@ -38400,7 +38438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A282" s="31">
         <v>2018</v>
       </c>
@@ -38526,7 +38564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A283" s="31">
         <v>2018</v>
       </c>
@@ -38652,7 +38690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A284" s="31">
         <v>2018</v>
       </c>
@@ -38778,7 +38816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A285" s="31">
         <v>2018</v>
       </c>
@@ -38904,7 +38942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A286" s="31">
         <v>2018</v>
       </c>
@@ -39030,7 +39068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A287" s="31">
         <v>2018</v>
       </c>
@@ -39156,7 +39194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A288" s="31">
         <v>2018</v>
       </c>
@@ -39282,7 +39320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A289" s="31">
         <v>2018</v>
       </c>
@@ -39408,7 +39446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A290" s="31">
         <v>2018</v>
       </c>
@@ -39534,7 +39572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A291" s="31">
         <v>2018</v>
       </c>
@@ -39660,7 +39698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A292" s="31">
         <v>2018</v>
       </c>
@@ -39786,7 +39824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A293" s="31">
         <v>2018</v>
       </c>
@@ -39912,7 +39950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A294" s="31">
         <v>2018</v>
       </c>
@@ -40038,7 +40076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A295" s="31">
         <v>2018</v>
       </c>
@@ -40164,7 +40202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A296" s="31">
         <v>2018</v>
       </c>
@@ -40290,7 +40328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A297" s="31">
         <v>2018</v>
       </c>
@@ -40416,7 +40454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A298" s="31">
         <v>2018</v>
       </c>
@@ -40542,7 +40580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A299" s="31">
         <v>2018</v>
       </c>
@@ -40668,7 +40706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A300" s="31">
         <v>2018</v>
       </c>
@@ -40794,7 +40832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A301" s="31">
         <v>2018</v>
       </c>
@@ -40920,7 +40958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A302" s="31">
         <v>2018</v>
       </c>
@@ -41046,7 +41084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A303" s="31">
         <v>2018</v>
       </c>
@@ -41172,7 +41210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A304" s="31">
         <v>2018</v>
       </c>
@@ -41298,7 +41336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A305" s="31">
         <v>2018</v>
       </c>
@@ -41424,7 +41462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A306" s="31">
         <v>2018</v>
       </c>
@@ -41550,7 +41588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A307" s="31">
         <v>2018</v>
       </c>
@@ -41676,7 +41714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A308" s="31">
         <v>2018</v>
       </c>
@@ -41802,7 +41840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A309" s="31">
         <v>2018</v>
       </c>
@@ -41928,7 +41966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A310" s="31">
         <v>2018</v>
       </c>
@@ -42054,7 +42092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A311" s="31">
         <v>2018</v>
       </c>
@@ -42180,7 +42218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A312" s="31">
         <v>2018</v>
       </c>
@@ -42306,7 +42344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A313" s="31">
         <v>2018</v>
       </c>
@@ -42432,7 +42470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A314" s="31">
         <v>2018</v>
       </c>
@@ -42558,7 +42596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A315" s="31">
         <v>2018</v>
       </c>
@@ -42684,7 +42722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A316" s="31">
         <v>2018</v>
       </c>
@@ -42810,7 +42848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A317" s="31">
         <v>2018</v>
       </c>
@@ -42936,7 +42974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A318" s="31">
         <v>2018</v>
       </c>
@@ -43062,7 +43100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A319" s="31">
         <v>2018</v>
       </c>
@@ -43188,7 +43226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A320" s="31">
         <v>2018</v>
       </c>
@@ -43314,7 +43352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A321" s="31">
         <v>2018</v>
       </c>
@@ -43440,7 +43478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A322" s="31">
         <v>2018</v>
       </c>
@@ -43566,7 +43604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="323" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A323" s="31">
         <v>2018</v>
       </c>
@@ -43692,7 +43730,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="324" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A324" s="31">
         <v>2018</v>
       </c>
@@ -43818,7 +43856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A325" s="31">
         <v>2018</v>
       </c>
@@ -43944,7 +43982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A326" s="31">
         <v>2018</v>
       </c>
@@ -44070,7 +44108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A327" s="31">
         <v>2018</v>
       </c>
@@ -44196,7 +44234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A328" s="31">
         <v>2018</v>
       </c>
@@ -44322,7 +44360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A329" s="31">
         <v>2018</v>
       </c>
@@ -44448,7 +44486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A330" s="31">
         <v>2018</v>
       </c>
@@ -44574,7 +44612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A331" s="31">
         <v>2018</v>
       </c>
@@ -44700,7 +44738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A332" s="31">
         <v>2018</v>
       </c>
@@ -44826,7 +44864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A333" s="31">
         <v>2018</v>
       </c>
@@ -44952,7 +44990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A334" s="31">
         <v>2018</v>
       </c>
@@ -45078,7 +45116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A335" s="31">
         <v>2018</v>
       </c>
@@ -45204,7 +45242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A336" s="31">
         <v>2018</v>
       </c>
@@ -45330,7 +45368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A337" s="31">
         <v>2018</v>
       </c>
@@ -45456,7 +45494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A338" s="31">
         <v>2018</v>
       </c>
@@ -45582,7 +45620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A339" s="31">
         <v>2018</v>
       </c>
@@ -45708,7 +45746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A340" s="31">
         <v>2018</v>
       </c>
@@ -45834,7 +45872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A341" s="31">
         <v>2018</v>
       </c>
@@ -45960,7 +45998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A342" s="31">
         <v>2018</v>
       </c>
@@ -46086,7 +46124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A343" s="31">
         <v>2018</v>
       </c>
@@ -46212,7 +46250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A344" s="31">
         <v>2018</v>
       </c>
@@ -46338,7 +46376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A345" s="31">
         <v>2018</v>
       </c>
@@ -46464,7 +46502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A346" s="31">
         <v>2018</v>
       </c>
@@ -46590,7 +46628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A347" s="31">
         <v>2018</v>
       </c>
@@ -46716,7 +46754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A348" s="31">
         <v>2018</v>
       </c>
@@ -46842,7 +46880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A349" s="31">
         <v>2018</v>
       </c>
@@ -46968,7 +47006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A350" s="31">
         <v>2018</v>
       </c>
@@ -47094,7 +47132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A351" s="31">
         <v>2018</v>
       </c>
@@ -47220,7 +47258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A352" s="31">
         <v>2018</v>
       </c>
@@ -47346,7 +47384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A353" s="31">
         <v>2018</v>
       </c>
@@ -47472,7 +47510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A354" s="31">
         <v>2018</v>
       </c>
@@ -47598,7 +47636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A355" s="31">
         <v>2018</v>
       </c>
@@ -47724,7 +47762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A356" s="31">
         <v>2018</v>
       </c>
@@ -47850,7 +47888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A357" s="31">
         <v>2018</v>
       </c>
@@ -47976,7 +48014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A358" s="31">
         <v>2018</v>
       </c>
@@ -48102,7 +48140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A359" s="31">
         <v>2018</v>
       </c>
@@ -48228,7 +48266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A360" s="31">
         <v>2018</v>
       </c>
@@ -48354,7 +48392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A361" s="31">
         <v>2018</v>
       </c>
@@ -48480,7 +48518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A362" s="31">
         <v>2018</v>
       </c>
@@ -48606,7 +48644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A363" s="31">
         <v>2018</v>
       </c>
@@ -48732,7 +48770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A364" s="31">
         <v>2018</v>
       </c>
@@ -48858,7 +48896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A365" s="31">
         <v>2018</v>
       </c>
@@ -48984,7 +49022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A366" s="31">
         <v>2018</v>
       </c>
@@ -49110,7 +49148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A367" s="31">
         <v>2018</v>
       </c>
@@ -49236,7 +49274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A368" s="31">
         <v>2018</v>
       </c>
@@ -49362,7 +49400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A369" s="31">
         <v>2018</v>
       </c>
@@ -49488,7 +49526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A370" s="31">
         <v>2018</v>
       </c>
@@ -49614,7 +49652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A371" s="31">
         <v>2018</v>
       </c>
@@ -49740,7 +49778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A372" s="31">
         <v>2018</v>
       </c>
@@ -49866,7 +49904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A373" s="31">
         <v>2018</v>
       </c>
@@ -49992,7 +50030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A374" s="31">
         <v>2018</v>
       </c>
@@ -50118,7 +50156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A375" s="31">
         <v>2018</v>
       </c>
@@ -50244,7 +50282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A376" s="31">
         <v>2018</v>
       </c>
@@ -50370,7 +50408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A377" s="31">
         <v>2018</v>
       </c>
@@ -50496,7 +50534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A378" s="31">
         <v>2018</v>
       </c>
@@ -50622,7 +50660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A379" s="31">
         <v>2018</v>
       </c>
@@ -50748,7 +50786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A380" s="31">
         <v>2018</v>
       </c>
@@ -50874,7 +50912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A381" s="31">
         <v>2018</v>
       </c>
@@ -51000,7 +51038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A382" s="31">
         <v>2018</v>
       </c>
@@ -51126,7 +51164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A383" s="31">
         <v>2018</v>
       </c>
@@ -51252,7 +51290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A384" s="31">
         <v>2018</v>
       </c>
@@ -51378,7 +51416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A385" s="31">
         <v>2018</v>
       </c>
@@ -51504,7 +51542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A386" s="31">
         <v>2018</v>
       </c>
@@ -51630,7 +51668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A387" s="31">
         <v>2018</v>
       </c>
@@ -51756,7 +51794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A388" s="31">
         <v>2018</v>
       </c>
@@ -51882,7 +51920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A389" s="31">
         <v>2018</v>
       </c>
@@ -52008,7 +52046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A390" s="31">
         <v>2018</v>
       </c>
@@ -52134,7 +52172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A391" s="31">
         <v>2018</v>
       </c>
@@ -52260,7 +52298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A392" s="31">
         <v>2018</v>
       </c>
@@ -52386,7 +52424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A393" s="31">
         <v>2018</v>
       </c>
@@ -52512,7 +52550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A394" s="31">
         <v>2018</v>
       </c>
@@ -52638,7 +52676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A395" s="31">
         <v>2018</v>
       </c>
@@ -52764,7 +52802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A396" s="31">
         <v>2018</v>
       </c>
@@ -52890,7 +52928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A397" s="31">
         <v>2018</v>
       </c>
@@ -53016,7 +53054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A398" s="31">
         <v>2018</v>
       </c>
@@ -53142,7 +53180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A399" s="31">
         <v>2018</v>
       </c>
@@ -53268,7 +53306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A400" s="31">
         <v>2018</v>
       </c>
@@ -53394,7 +53432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A401" s="31">
         <v>2018</v>
       </c>
@@ -53520,7 +53558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A402" s="31">
         <v>2018</v>
       </c>
@@ -53646,7 +53684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A403" s="31">
         <v>2018</v>
       </c>
@@ -53772,7 +53810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A404" s="31">
         <v>2018</v>
       </c>
@@ -53898,7 +53936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A405" s="31">
         <v>2018</v>
       </c>
@@ -54024,7 +54062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A406" s="31">
         <v>2018</v>
       </c>
@@ -54150,7 +54188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A407" s="31">
         <v>2018</v>
       </c>
@@ -54276,7 +54314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A408" s="31">
         <v>2018</v>
       </c>
@@ -54402,7 +54440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A409" s="31">
         <v>2018</v>
       </c>
@@ -54528,7 +54566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A410" s="31">
         <v>2018</v>
       </c>
@@ -54654,7 +54692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A411" s="31">
         <v>2018</v>
       </c>
@@ -54780,7 +54818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A412" s="31">
         <v>2018</v>
       </c>
@@ -54906,7 +54944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A413" s="31">
         <v>2018</v>
       </c>
@@ -55032,7 +55070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A414" s="31">
         <v>2018</v>
       </c>
@@ -55158,7 +55196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A415" s="31">
         <v>2018</v>
       </c>
@@ -55284,7 +55322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A416" s="31">
         <v>2018</v>
       </c>
@@ -55410,7 +55448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A417" s="31">
         <v>2018</v>
       </c>
@@ -55536,7 +55574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A418" s="31">
         <v>2018</v>
       </c>
@@ -55662,7 +55700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A419" s="31">
         <v>2018</v>
       </c>
@@ -55788,7 +55826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A420" s="31">
         <v>2018</v>
       </c>
@@ -55914,7 +55952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A421" s="31">
         <v>2018</v>
       </c>
@@ -56040,7 +56078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A422" s="31">
         <v>2018</v>
       </c>
@@ -56166,7 +56204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A423" s="31">
         <v>2018</v>
       </c>
@@ -56292,7 +56330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A424" s="31">
         <v>2018</v>
       </c>
@@ -56418,7 +56456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A425" s="31">
         <v>2018</v>
       </c>
@@ -56544,7 +56582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A426" s="31">
         <v>2018</v>
       </c>
@@ -56670,7 +56708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A427" s="31">
         <v>2018</v>
       </c>
@@ -56796,7 +56834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A428" s="31">
         <v>2018</v>
       </c>
@@ -56922,7 +56960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A429" s="31">
         <v>2018</v>
       </c>
@@ -57048,7 +57086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A430" s="31">
         <v>2018</v>
       </c>
@@ -57174,7 +57212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A431" s="31">
         <v>2018</v>
       </c>
@@ -57300,7 +57338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A432" s="31">
         <v>2018</v>
       </c>
@@ -57316,19 +57354,19 @@
       <c r="E432" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="F432" s="61">
+      <c r="F432" s="36">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G432" s="62" t="str">
+      <c r="G432" s="37" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H432" s="62">
+      <c r="H432" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I432" s="63" t="str">
+      <c r="I432" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -57450,43 +57488,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>558</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>559</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>560</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="10" t="s">
         <v>557</v>
       </c>
@@ -57494,7 +57534,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>437</v>
       </c>
@@ -57507,7 +57547,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -57520,7 +57560,7 @@
         <v>0.22725360090629559</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>439</v>
       </c>
@@ -57533,22 +57573,22 @@
         <v>0.49636510762259262</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -57561,7 +57601,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>444</v>
       </c>
@@ -57581,104 +57621,60 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A843D3E-6124-461A-A657-4C668440F55D}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>470</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B2" s="11">
-        <f>Calculations!B17*About!$A$34</f>
-        <v>23383.101272803659</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="39"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B3" s="11">
-        <f>Calculations!B17*About!$A$34</f>
-        <v>23383.101272803659</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" s="11">
-        <f>Calculations!B16*About!$A$34</f>
-        <v>37946.092485549132</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B6" s="11">
-        <f>B$3</f>
-        <v>23383.101272803659</v>
-      </c>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B7" s="11">
-        <f t="shared" ref="B7:B10" si="0">B$3</f>
-        <v>23383.101272803659</v>
-      </c>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B8" s="11">
-        <f t="shared" si="0"/>
-        <v>23383.101272803659</v>
-      </c>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" s="11">
-        <f t="shared" si="0"/>
-        <v>23383.101272803659</v>
-      </c>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B10" s="11">
-        <f t="shared" si="0"/>
-        <v>23383.101272803659</v>
-      </c>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57686,20 +57682,3587 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E445D65E-4EE6-42EB-999C-E0DC9FF028AC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AN27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AR4" sqref="AR4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" style="35" customWidth="1"/>
+    <col min="10" max="12" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN3" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A4" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1015</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F27" si="0">IFERROR(SUM(AD4,AI4)*10^3/T4,"")</f>
+        <v>40608.20367751061</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G27" si="1">IFERROR(SUM(AE4,AJ4)*10^3/U4,"")</f>
+        <v>21403.785488958991</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H27" si="2">IFERROR(SUM(AF4,AK4)*10^3/V4,"")</f>
+        <v>22156.862745098042</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" ref="I4:I27" si="3">IFERROR(SUM(AG4,AL4)*10^3/W4,"")</f>
+        <v/>
+      </c>
+      <c r="J4" s="24">
+        <v>62781</v>
+      </c>
+      <c r="K4" s="24">
+        <v>5794</v>
+      </c>
+      <c r="L4" s="24">
+        <v>575</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="24">
+        <v>69150</v>
+      </c>
+      <c r="O4" s="25">
+        <v>89</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="25">
+        <v>89</v>
+      </c>
+      <c r="T4" s="26">
+        <v>70.7</v>
+      </c>
+      <c r="U4" s="26">
+        <v>63.4</v>
+      </c>
+      <c r="V4" s="26">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="26">
+        <v>154.5</v>
+      </c>
+      <c r="Y4" s="27">
+        <v>40.9</v>
+      </c>
+      <c r="Z4" s="27">
+        <v>44.5</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>99.4</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>2109</v>
+      </c>
+      <c r="AE4" s="28">
+        <v>1198</v>
+      </c>
+      <c r="AF4" s="28">
+        <v>399</v>
+      </c>
+      <c r="AG4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" s="28">
+        <v>3706</v>
+      </c>
+      <c r="AI4" s="29">
+        <v>762</v>
+      </c>
+      <c r="AJ4" s="29">
+        <v>159</v>
+      </c>
+      <c r="AK4" s="29">
+        <v>53</v>
+      </c>
+      <c r="AL4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="29">
+        <v>974</v>
+      </c>
+      <c r="AN4" s="30">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A5" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="32">
+        <v>3278</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J5" s="24">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24">
+        <v>61</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0</v>
+      </c>
+      <c r="N5" s="24">
+        <v>61</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0</v>
+      </c>
+      <c r="S5" s="25">
+        <v>24</v>
+      </c>
+      <c r="T5" s="26">
+        <v>0</v>
+      </c>
+      <c r="U5" s="26">
+        <v>30.1</v>
+      </c>
+      <c r="V5" s="26">
+        <v>0</v>
+      </c>
+      <c r="W5" s="26">
+        <v>0</v>
+      </c>
+      <c r="X5" s="26">
+        <v>30.1</v>
+      </c>
+      <c r="Y5" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="27">
+        <v>23.7</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>23.7</v>
+      </c>
+      <c r="AD5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A6" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="32">
+        <v>4295</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>21363.63636363636</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="24">
+        <v>11</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="24">
+        <v>11</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="28">
+        <v>47</v>
+      </c>
+      <c r="AF6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH6" s="28">
+        <v>47</v>
+      </c>
+      <c r="AI6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A7" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="32">
+        <v>5078</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>33580.246913580246</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J7" s="24">
+        <v>10813</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="24">
+        <v>10813</v>
+      </c>
+      <c r="O7" s="25">
+        <v>83</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="25">
+        <v>83</v>
+      </c>
+      <c r="T7" s="26">
+        <v>24.3</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X7" s="26">
+        <v>24.3</v>
+      </c>
+      <c r="Y7" s="27">
+        <v>21.9</v>
+      </c>
+      <c r="Z7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>21.9</v>
+      </c>
+      <c r="AD7" s="28">
+        <v>539</v>
+      </c>
+      <c r="AE7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH7" s="28">
+        <v>539</v>
+      </c>
+      <c r="AI7" s="29">
+        <v>277</v>
+      </c>
+      <c r="AJ7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM7" s="29">
+        <v>277</v>
+      </c>
+      <c r="AN7" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A8" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="32">
+        <v>5701</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>117777.77777777778</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>46400</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>41304.34782608696</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J8" s="24">
+        <v>1971</v>
+      </c>
+      <c r="K8" s="24">
+        <v>6</v>
+      </c>
+      <c r="L8" s="24">
+        <v>5</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8" s="24">
+        <v>1982</v>
+      </c>
+      <c r="O8" s="25">
+        <v>43</v>
+      </c>
+      <c r="P8" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>12</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="25">
+        <v>67</v>
+      </c>
+      <c r="T8" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="U8" s="26">
+        <v>5</v>
+      </c>
+      <c r="V8" s="26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W8" s="26">
+        <v>0</v>
+      </c>
+      <c r="X8" s="26">
+        <v>11.4</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="Z8" s="27">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="27">
+        <v>11.4</v>
+      </c>
+      <c r="AD8" s="28">
+        <v>201</v>
+      </c>
+      <c r="AE8" s="28">
+        <v>224</v>
+      </c>
+      <c r="AF8" s="28">
+        <v>182</v>
+      </c>
+      <c r="AG8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="28">
+        <v>607</v>
+      </c>
+      <c r="AI8" s="29">
+        <v>11</v>
+      </c>
+      <c r="AJ8" s="29">
+        <v>8</v>
+      </c>
+      <c r="AK8" s="29">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="29">
+        <v>27</v>
+      </c>
+      <c r="AN8" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A9" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="32">
+        <v>6182</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>57058.823529411769</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J9" s="24">
+        <v>800</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="24">
+        <v>800</v>
+      </c>
+      <c r="O9" s="25">
+        <v>9</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="25">
+        <v>9</v>
+      </c>
+      <c r="T9" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X9" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="Y9" s="27">
+        <v>1.7</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC9" s="27">
+        <v>1.7</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>87</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH9" s="28">
+        <v>87</v>
+      </c>
+      <c r="AI9" s="29">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM9" s="29">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A10" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="32">
+        <v>7349</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>39008.620689655174</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="24">
+        <v>3773</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="24">
+        <v>3773</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="26">
+        <v>46.4</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" s="26">
+        <v>46.4</v>
+      </c>
+      <c r="Y10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF10" s="28">
+        <v>1810</v>
+      </c>
+      <c r="AG10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH10" s="28">
+        <v>1810</v>
+      </c>
+      <c r="AI10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN10" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A11" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="32">
+        <v>7634</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="24">
+        <v>1</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="25">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="25">
+        <v>62</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="26">
+        <v>6</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="26">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN11" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A12" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="32">
+        <v>7752</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>72500</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J12" s="24">
+        <v>753</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="24">
+        <v>753</v>
+      </c>
+      <c r="O12" s="25">
+        <v>13</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="25">
+        <v>13</v>
+      </c>
+      <c r="T12" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="U12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X12" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="Y12" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="Z12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC12" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="AD12" s="28">
+        <v>99</v>
+      </c>
+      <c r="AE12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH12" s="28">
+        <v>99</v>
+      </c>
+      <c r="AI12" s="29">
+        <v>17</v>
+      </c>
+      <c r="AJ12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM12" s="29">
+        <v>17</v>
+      </c>
+      <c r="AN12" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A13" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="32">
+        <v>8901</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>49538.461538461539</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>37193.877551020407</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J13" s="24">
+        <v>15143</v>
+      </c>
+      <c r="K13" s="24">
+        <v>208</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="24">
+        <v>15351</v>
+      </c>
+      <c r="O13" s="25">
+        <v>117</v>
+      </c>
+      <c r="P13" s="25">
+        <v>664</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="25">
+        <v>781</v>
+      </c>
+      <c r="T13" s="26">
+        <v>19.5</v>
+      </c>
+      <c r="U13" s="26">
+        <v>98</v>
+      </c>
+      <c r="V13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X13" s="26">
+        <v>117.5</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>19.5</v>
+      </c>
+      <c r="Z13" s="27">
+        <v>110.6</v>
+      </c>
+      <c r="AA13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>130.1</v>
+      </c>
+      <c r="AD13" s="28">
+        <v>838</v>
+      </c>
+      <c r="AE13" s="28">
+        <v>3346</v>
+      </c>
+      <c r="AF13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH13" s="28">
+        <v>4185</v>
+      </c>
+      <c r="AI13" s="29">
+        <v>128</v>
+      </c>
+      <c r="AJ13" s="29">
+        <v>299</v>
+      </c>
+      <c r="AK13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" s="29">
+        <v>427</v>
+      </c>
+      <c r="AN13" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A14" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="32">
+        <v>9590</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>41340.909090909088</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="24">
+        <v>9</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="24">
+        <v>9</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="26">
+        <v>44</v>
+      </c>
+      <c r="W14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X14" s="26">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14" s="27">
+        <v>36</v>
+      </c>
+      <c r="AB14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC14" s="27">
+        <v>36</v>
+      </c>
+      <c r="AD14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF14" s="28">
+        <v>1819</v>
+      </c>
+      <c r="AG14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH14" s="28">
+        <v>1819</v>
+      </c>
+      <c r="AI14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN14" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A15" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="32">
+        <v>12268</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>200.50125313283209</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="24">
+        <v>792</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="24">
+        <v>792</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="26">
+        <v>79.8</v>
+      </c>
+      <c r="W15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="26">
+        <v>79.8</v>
+      </c>
+      <c r="Y15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="27">
+        <v>32.9</v>
+      </c>
+      <c r="AB15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC15" s="27">
+        <v>32.9</v>
+      </c>
+      <c r="AD15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK15" s="29">
+        <v>16</v>
+      </c>
+      <c r="AL15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM15" s="29">
+        <v>16</v>
+      </c>
+      <c r="AN15" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A16" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="32">
+        <v>16604</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>82798.319327731093</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>45470.085470085469</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J16" s="24">
+        <v>117659</v>
+      </c>
+      <c r="K16" s="24">
+        <v>444</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="24">
+        <v>118103</v>
+      </c>
+      <c r="O16" s="25">
+        <v>18237</v>
+      </c>
+      <c r="P16" s="25">
+        <v>2781</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="25">
+        <v>21018</v>
+      </c>
+      <c r="T16" s="26">
+        <v>119</v>
+      </c>
+      <c r="U16" s="26">
+        <v>117</v>
+      </c>
+      <c r="V16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16" s="26">
+        <v>236</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>119</v>
+      </c>
+      <c r="Z16" s="27">
+        <v>117</v>
+      </c>
+      <c r="AA16" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC16" s="27">
+        <v>236</v>
+      </c>
+      <c r="AD16" s="28">
+        <v>9521</v>
+      </c>
+      <c r="AE16" s="28">
+        <v>5123</v>
+      </c>
+      <c r="AF16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH16" s="28">
+        <v>14644</v>
+      </c>
+      <c r="AI16" s="29">
+        <v>332</v>
+      </c>
+      <c r="AJ16" s="29">
+        <v>197</v>
+      </c>
+      <c r="AK16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM16" s="29">
+        <v>529</v>
+      </c>
+      <c r="AN16" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A17" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="32">
+        <v>16627</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>41314.741035856568</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="24">
+        <v>19</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="24">
+        <v>19</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="26">
+        <v>25.1</v>
+      </c>
+      <c r="W17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17" s="26">
+        <v>25.1</v>
+      </c>
+      <c r="Y17" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA17" s="27">
+        <v>6.9</v>
+      </c>
+      <c r="AB17" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC17" s="27">
+        <v>6.9</v>
+      </c>
+      <c r="AD17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF17" s="28">
+        <v>1037</v>
+      </c>
+      <c r="AG17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH17" s="28">
+        <v>1037</v>
+      </c>
+      <c r="AI17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN17" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A18" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="32">
+        <v>17561</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>18934.782608695652</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="24">
+        <v>1668</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="24">
+        <v>1668</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>110</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="25">
+        <v>110</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="26">
+        <v>46</v>
+      </c>
+      <c r="W18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" s="26">
+        <v>46</v>
+      </c>
+      <c r="Y18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF18" s="28">
+        <v>738</v>
+      </c>
+      <c r="AG18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH18" s="28">
+        <v>738</v>
+      </c>
+      <c r="AI18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK18" s="29">
+        <v>133</v>
+      </c>
+      <c r="AL18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM18" s="29">
+        <v>133</v>
+      </c>
+      <c r="AN18" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A19" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="32">
+        <v>17698</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>28250</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J19" s="24">
+        <v>0</v>
+      </c>
+      <c r="K19" s="24">
+        <v>9</v>
+      </c>
+      <c r="L19" s="24">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
+        <v>0</v>
+      </c>
+      <c r="N19" s="24">
+        <v>9</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>0</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
+        <v>105</v>
+      </c>
+      <c r="T19" s="26">
+        <v>0</v>
+      </c>
+      <c r="U19" s="26">
+        <v>8</v>
+      </c>
+      <c r="V19" s="26">
+        <v>0</v>
+      </c>
+      <c r="W19" s="26">
+        <v>0</v>
+      </c>
+      <c r="X19" s="26">
+        <v>8</v>
+      </c>
+      <c r="Y19" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="27">
+        <v>8</v>
+      </c>
+      <c r="AA19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="27">
+        <v>8</v>
+      </c>
+      <c r="AD19" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="28">
+        <v>192</v>
+      </c>
+      <c r="AF19" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="28">
+        <v>192</v>
+      </c>
+      <c r="AI19" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="29">
+        <v>34</v>
+      </c>
+      <c r="AK19" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="29">
+        <v>34</v>
+      </c>
+      <c r="AN19" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A20" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="32">
+        <v>17718</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>97936.507936507944</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>77872.340425531918</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J20" s="24">
+        <v>6909</v>
+      </c>
+      <c r="K20" s="24">
+        <v>282</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="24">
+        <v>7191</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0</v>
+      </c>
+      <c r="P20" s="25">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="25">
+        <v>20</v>
+      </c>
+      <c r="T20" s="26">
+        <v>6.3</v>
+      </c>
+      <c r="U20" s="26">
+        <v>4.7</v>
+      </c>
+      <c r="V20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X20" s="26">
+        <v>11</v>
+      </c>
+      <c r="Y20" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="AA20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC20" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="AD20" s="28">
+        <v>370</v>
+      </c>
+      <c r="AE20" s="28">
+        <v>227</v>
+      </c>
+      <c r="AF20" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG20" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH20" s="28">
+        <v>597</v>
+      </c>
+      <c r="AI20" s="29">
+        <v>247</v>
+      </c>
+      <c r="AJ20" s="29">
+        <v>139</v>
+      </c>
+      <c r="AK20" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL20" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM20" s="29">
+        <v>386</v>
+      </c>
+      <c r="AN20" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A21" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="32">
+        <v>19327</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>6106.1946902654872</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J21" s="24">
+        <v>3279</v>
+      </c>
+      <c r="K21" s="24">
+        <v>0</v>
+      </c>
+      <c r="L21" s="24">
+        <v>0</v>
+      </c>
+      <c r="M21" s="24">
+        <v>0</v>
+      </c>
+      <c r="N21" s="24">
+        <v>3279</v>
+      </c>
+      <c r="O21" s="25">
+        <v>26</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0</v>
+      </c>
+      <c r="S21" s="25">
+        <v>26</v>
+      </c>
+      <c r="T21" s="26">
+        <v>33.9</v>
+      </c>
+      <c r="U21" s="26">
+        <v>0</v>
+      </c>
+      <c r="V21" s="26">
+        <v>0</v>
+      </c>
+      <c r="W21" s="26">
+        <v>0</v>
+      </c>
+      <c r="X21" s="26">
+        <v>33.9</v>
+      </c>
+      <c r="Y21" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD21" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="29">
+        <v>206</v>
+      </c>
+      <c r="AJ21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="29">
+        <v>206</v>
+      </c>
+      <c r="AN21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A22" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="32">
+        <v>19490</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>21785.714285714286</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J22" s="24">
+        <v>30218</v>
+      </c>
+      <c r="K22" s="24">
+        <v>5341</v>
+      </c>
+      <c r="L22" s="24">
+        <v>30</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="24">
+        <v>35589</v>
+      </c>
+      <c r="O22" s="25">
+        <v>130</v>
+      </c>
+      <c r="P22" s="25">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>60</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="25">
+        <v>243</v>
+      </c>
+      <c r="T22" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="U22" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="V22" s="26">
+        <v>1</v>
+      </c>
+      <c r="W22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X22" s="26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y22" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="Z22" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="AA22" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC22" s="27">
+        <v>4.3</v>
+      </c>
+      <c r="AD22" s="28">
+        <v>61</v>
+      </c>
+      <c r="AE22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH22" s="28">
+        <v>61</v>
+      </c>
+      <c r="AI22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN22" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A23" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="32">
+        <v>20404</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="24">
+        <v>21</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="24">
+        <v>21</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="25">
+        <v>5</v>
+      </c>
+      <c r="T23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="26">
+        <v>5</v>
+      </c>
+      <c r="V23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X23" s="26">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z23" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="AA23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC23" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="AD23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN23" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A24" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="32">
+        <v>20472</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>82068.965517241377</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>25974.025974025972</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J24" s="24">
+        <v>798</v>
+      </c>
+      <c r="K24" s="24">
+        <v>33</v>
+      </c>
+      <c r="L24" s="24">
+        <v>8</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="24">
+        <v>839</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="U24" s="26">
+        <v>7.7</v>
+      </c>
+      <c r="V24" s="26">
+        <v>15.2</v>
+      </c>
+      <c r="W24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X24" s="26">
+        <v>25.8</v>
+      </c>
+      <c r="Y24" s="27">
+        <v>2.9</v>
+      </c>
+      <c r="Z24" s="27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA24" s="27">
+        <v>8</v>
+      </c>
+      <c r="AB24" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC24" s="27">
+        <v>15.3</v>
+      </c>
+      <c r="AD24" s="28">
+        <v>159</v>
+      </c>
+      <c r="AE24" s="28">
+        <v>90</v>
+      </c>
+      <c r="AF24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH24" s="28">
+        <v>249</v>
+      </c>
+      <c r="AI24" s="29">
+        <v>79</v>
+      </c>
+      <c r="AJ24" s="29">
+        <v>110</v>
+      </c>
+      <c r="AK24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM24" s="29">
+        <v>189</v>
+      </c>
+      <c r="AN24" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A25" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="32">
+        <v>40051</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>36133.333333333336</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="24">
+        <v>39</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="24">
+        <v>39</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="25">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="25">
+        <v>7</v>
+      </c>
+      <c r="T25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="V25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X25" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="Y25" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z25" s="27">
+        <v>7.2</v>
+      </c>
+      <c r="AA25" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB25" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC25" s="27">
+        <v>7.2</v>
+      </c>
+      <c r="AD25" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE25" s="28">
+        <v>246</v>
+      </c>
+      <c r="AF25" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG25" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH25" s="28">
+        <v>246</v>
+      </c>
+      <c r="AI25" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ25" s="29">
+        <v>25</v>
+      </c>
+      <c r="AK25" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL25" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM25" s="29">
+        <v>25</v>
+      </c>
+      <c r="AN25" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A26" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="32">
+        <v>44372</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>41502.8901734104</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>36706.056129985227</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J26" s="24">
+        <v>26482</v>
+      </c>
+      <c r="K26" s="24">
+        <v>139</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="24">
+        <v>26621</v>
+      </c>
+      <c r="O26" s="25">
+        <v>104</v>
+      </c>
+      <c r="P26" s="25">
+        <v>203</v>
+      </c>
+      <c r="Q26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="25">
+        <v>307</v>
+      </c>
+      <c r="T26" s="26">
+        <v>34.6</v>
+      </c>
+      <c r="U26" s="26">
+        <v>67.7</v>
+      </c>
+      <c r="V26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X26" s="26">
+        <v>102.3</v>
+      </c>
+      <c r="Y26" s="27">
+        <v>34.6</v>
+      </c>
+      <c r="Z26" s="27">
+        <v>67.7</v>
+      </c>
+      <c r="AA26" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB26" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC26" s="27">
+        <v>102.3</v>
+      </c>
+      <c r="AD26" s="28">
+        <v>1316</v>
+      </c>
+      <c r="AE26" s="28">
+        <v>2264</v>
+      </c>
+      <c r="AF26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH26" s="28">
+        <v>3580</v>
+      </c>
+      <c r="AI26" s="29">
+        <v>120</v>
+      </c>
+      <c r="AJ26" s="29">
+        <v>221</v>
+      </c>
+      <c r="AK26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM26" s="29">
+        <v>341</v>
+      </c>
+      <c r="AN26" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A27" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="32">
+        <v>55937</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>21651.376146788989</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="24">
+        <v>8</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="24">
+        <v>8</v>
+      </c>
+      <c r="O27" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="25">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="25">
+        <v>20</v>
+      </c>
+      <c r="T27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" s="26">
+        <v>10.9</v>
+      </c>
+      <c r="V27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X27" s="26">
+        <v>10.9</v>
+      </c>
+      <c r="Y27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z27" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="AA27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC27" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="AD27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE27" s="28">
+        <v>189</v>
+      </c>
+      <c r="AF27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH27" s="28">
+        <v>189</v>
+      </c>
+      <c r="AI27" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ27" s="29">
+        <v>47</v>
+      </c>
+      <c r="AK27" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL27" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM27" s="29">
+        <v>47</v>
+      </c>
+      <c r="AN27" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AN27" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN27">
+      <sortCondition ref="D3:D27"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="11">
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="J1:AC1"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AH2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDA58DD-520D-40F0-BE49-37D445630EA3}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="11" cm="1">
+        <f t="array" ref="B7">MEDIAN(IF('Demand Response_Texas'!F:F&lt;&gt;0,'Demand Response_Texas'!F:F))</f>
+        <v>53298.642533936654</v>
+      </c>
+      <c r="C7" s="9">
+        <f>SUM('Demand Response_Texas'!T:T)/SUM('Demand Response_Texas'!X:X)</f>
+        <v>0.30813055233680958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="11" cm="1">
+        <f t="array" ref="B8">MEDIAN(IF('Demand Response_Texas'!G:G&lt;&gt;0,'Demand Response_Texas'!G:G))</f>
+        <v>36133.333333333336</v>
+      </c>
+      <c r="C8" s="9">
+        <f>SUM('Demand Response_Texas'!U:U)/SUM('Demand Response_Texas'!X:X)</f>
+        <v>0.4191772885283892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="11" cm="1">
+        <f t="array" ref="B9">MEDIAN(IF('Demand Response_Texas'!H:H&lt;&gt;0,'Demand Response_Texas'!H:H))</f>
+        <v>39008.620689655174</v>
+      </c>
+      <c r="C9" s="9">
+        <f>SUM('Demand Response_Texas'!V:V)/SUM('Demand Response_Texas'!X:X)</f>
+        <v>0.272788721514098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="11">
+        <f>B7</f>
+        <v>53298.642533936654</v>
+      </c>
+      <c r="C16" s="12">
+        <f>C7</f>
+        <v>0.30813055233680958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="11">
+        <f>(B8*C8+B9*C9)/SUM(C8:C9)</f>
+        <v>37266.836931101854</v>
+      </c>
+      <c r="C17" s="12">
+        <f>SUM(C8:C9)</f>
+        <v>0.69196601004248715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="11">
+        <f>Calculations_Texas!B17*About!$A$34</f>
+        <v>34073.069006106423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="11">
+        <f>Calculations_Texas!B17*About!$A$34</f>
+        <v>34073.069006106423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="11">
+        <f>Calculations_Texas!B16*About!$A$34</f>
+        <v>48730.94886877828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="11">
+        <f>B$3</f>
+        <v>34073.069006106423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" ref="B7:B10" si="0">B$3</f>
+        <v>34073.069006106423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="0"/>
+        <v>34073.069006106423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>34073.069006106423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="0"/>
+        <v>34073.069006106423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>471</v>
       </c>
@@ -57707,7 +61270,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -57715,25 +61278,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>462</v>
       </c>
       <c r="B3" s="13">
-        <f>Calculations!C17</f>
-        <v>0.72361870852888821</v>
+        <f>Calculations_Texas!C17</f>
+        <v>0.69196601004248715</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>463</v>
       </c>
       <c r="B4" s="13">
-        <f>Calculations!C16</f>
-        <v>0.27639423854992745</v>
+        <f>Calculations_Texas!C16</f>
+        <v>0.30813055233680958</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>464</v>
       </c>
@@ -57741,7 +61304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>465</v>
       </c>
@@ -57749,7 +61312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -57757,7 +61320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -57765,7 +61328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>468</v>
       </c>
@@ -57773,7 +61336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>469</v>
       </c>
